--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7914.071283196989</v>
+        <v>1574900.185356201</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7914.071283196989</v>
+        <v>1574900.185356201</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16759.04159612043</v>
+        <v>1014896.635354827</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16759.04159612043</v>
+        <v>1014896.635354827</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112088479.396007</v>
+        <v>44670681.95451083</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10098.32618931844</v>
+        <v>1008223.081891027</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19641.57545624948</v>
+        <v>1921271.436132157</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29184.8247231805</v>
+        <v>2834319.790373289</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39740.48300983748</v>
+        <v>3692510.946738094</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50296.14129649443</v>
+        <v>4550702.103102899</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59946.61259088574</v>
+        <v>5463750.457344028</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69795.00136396814</v>
+        <v>6383550.625001076</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79609.46142641779</v>
+        <v>7296598.979242204</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90131.19100244202</v>
+        <v>8148038.322191084</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100149.2594659575</v>
+        <v>9030709.893814832</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109799.7307603488</v>
+        <v>9943758.248055963</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119450.2020547401</v>
+        <v>10856806.6022971</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129100.6733491313</v>
+        <v>11769854.95653824</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139204.6587674656</v>
+        <v>12648383.38543041</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149702.8147371387</v>
+        <v>13489859.58029956</v>
       </c>
     </row>
   </sheetData>
